--- a/doc/引擎数据规格定义1210.xlsx
+++ b/doc/引擎数据规格定义1210.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1580,6 +1580,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1589,6 +1601,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1597,24 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="135">
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2072,14 +2072,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2139,13 +2139,13 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
@@ -2333,8 +2333,8 @@
         <v>18</v>
       </c>
       <c r="F13" s="13">
-        <f>SUM(E5:E13)</f>
-        <v>184</v>
+        <f>SUM(E3,E5:E13)</f>
+        <v>192</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2342,13 +2342,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
@@ -2535,13 +2535,13 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="10"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2589,13 +2589,13 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="10"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2766,13 +2766,13 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="10"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2820,13 +2820,13 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="10"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2997,13 +2997,13 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="10"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3051,13 +3051,13 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="10"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3232,27 +3232,27 @@
       <c r="K61" s="2"/>
     </row>
     <row r="63" spans="1:15" ht="38">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-      <c r="G64" s="41" t="s">
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="G64" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="49"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
@@ -3475,12 +3475,12 @@
         <v>46</v>
       </c>
       <c r="E74" s="33"/>
-      <c r="G74" s="41" t="s">
+      <c r="G74" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="43"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="49"/>
     </row>
     <row r="75" spans="2:10">
       <c r="G75" s="18" t="s">
@@ -3497,12 +3497,12 @@
       </c>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
       <c r="G76" s="24" t="s">
         <v>111</v>
       </c>
@@ -3765,12 +3765,12 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="14" customHeight="1">
-      <c r="G88" s="41" t="s">
+      <c r="G88" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="43"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="49"/>
     </row>
     <row r="89" spans="2:10">
       <c r="G89" s="18" t="s">
@@ -3933,12 +3933,12 @@
       </c>
     </row>
     <row r="105" spans="7:10">
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="43"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="49"/>
     </row>
     <row r="106" spans="7:10">
       <c r="G106" s="18" t="s">
@@ -4102,6 +4102,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G105:J105"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B63:F63"/>
     <mergeCell ref="B64:E64"/>
@@ -4113,11 +4118,6 @@
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G105:J105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
